--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Uts2-Uts2r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,22 +76,25 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>FAPs</t>
+  </si>
+  <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
+    <t>Resolving-Mac</t>
+  </si>
+  <si>
+    <t>Uts2</t>
+  </si>
+  <si>
+    <t>Uts2r</t>
+  </si>
+  <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>FAPs</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Uts2</t>
-  </si>
-  <si>
-    <t>Uts2r</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,7 +531,7 @@
         <v>25</v>
       </c>
       <c r="D2" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -537,16 +540,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.06151833333333333</v>
+        <v>0.176339</v>
       </c>
       <c r="H2">
-        <v>0.184555</v>
+        <v>0.529017</v>
       </c>
       <c r="I2">
-        <v>0.09840770987921588</v>
+        <v>0.2427660118313651</v>
       </c>
       <c r="J2">
-        <v>0.09840770987921588</v>
+        <v>0.2427660118313651</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -555,28 +558,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2184006666666667</v>
+        <v>0.024594</v>
       </c>
       <c r="N2">
-        <v>0.6552020000000001</v>
+        <v>0.073782</v>
       </c>
       <c r="O2">
-        <v>0.4297750837475066</v>
+        <v>0.07315455339552658</v>
       </c>
       <c r="P2">
-        <v>0.4297750837475066</v>
+        <v>0.07315455339552657</v>
       </c>
       <c r="Q2">
-        <v>0.01343564501222222</v>
+        <v>0.004336881366</v>
       </c>
       <c r="R2">
-        <v>0.12092080511</v>
+        <v>0.039031932294</v>
       </c>
       <c r="S2">
-        <v>0.04229318175474033</v>
+        <v>0.01775943917513664</v>
       </c>
       <c r="T2">
-        <v>0.04229318175474033</v>
+        <v>0.01775943917513664</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,7 +593,7 @@
         <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -599,16 +602,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.06151833333333333</v>
+        <v>0.176339</v>
       </c>
       <c r="H3">
-        <v>0.184555</v>
+        <v>0.529017</v>
       </c>
       <c r="I3">
-        <v>0.09840770987921588</v>
+        <v>0.2427660118313651</v>
       </c>
       <c r="J3">
-        <v>0.09840770987921588</v>
+        <v>0.2427660118313651</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -617,28 +620,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>0.2813096666666667</v>
+        <v>0.2813096666666666</v>
       </c>
       <c r="N3">
-        <v>0.843929</v>
+        <v>0.8439289999999999</v>
       </c>
       <c r="O3">
-        <v>0.5535692147642246</v>
+        <v>0.8367521765814607</v>
       </c>
       <c r="P3">
-        <v>0.5535692147642245</v>
+        <v>0.8367521765814607</v>
       </c>
       <c r="Q3">
-        <v>0.01730570184388889</v>
+        <v>0.04960586531033333</v>
       </c>
       <c r="R3">
-        <v>0.155751316595</v>
+        <v>0.4464527877929999</v>
       </c>
       <c r="S3">
-        <v>0.05447547868458316</v>
+        <v>0.2031349887998954</v>
       </c>
       <c r="T3">
-        <v>0.05447547868458315</v>
+        <v>0.2031349887998954</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +655,7 @@
         <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -661,51 +664,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.06151833333333333</v>
+        <v>0.176339</v>
       </c>
       <c r="H4">
-        <v>0.184555</v>
+        <v>0.529017</v>
       </c>
       <c r="I4">
-        <v>0.09840770987921588</v>
+        <v>0.2427660118313651</v>
       </c>
       <c r="J4">
-        <v>0.09840770987921588</v>
+        <v>0.2427660118313651</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.008463999999999999</v>
+        <v>0.01219966666666667</v>
       </c>
       <c r="N4">
-        <v>0.025392</v>
+        <v>0.036599</v>
       </c>
       <c r="O4">
-        <v>0.01665570148826878</v>
+        <v>0.0362877598834794</v>
       </c>
       <c r="P4">
-        <v>0.01665570148826878</v>
+        <v>0.0362877598834794</v>
       </c>
       <c r="Q4">
-        <v>0.0005206911733333332</v>
+        <v>0.002151277020333333</v>
       </c>
       <c r="R4">
-        <v>0.004686220559999999</v>
+        <v>0.019361493183</v>
       </c>
       <c r="S4">
-        <v>0.001639049439892379</v>
+        <v>0.008809434745206497</v>
       </c>
       <c r="T4">
-        <v>0.001639049439892379</v>
+        <v>0.008809434745206497</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>24</v>
@@ -714,7 +717,7 @@
         <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -729,10 +732,10 @@
         <v>0.529017</v>
       </c>
       <c r="I5">
-        <v>0.2820804175295882</v>
+        <v>0.2427660118313651</v>
       </c>
       <c r="J5">
-        <v>0.2820804175295882</v>
+        <v>0.2427660118313651</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +744,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.2184006666666667</v>
+        <v>0.018089</v>
       </c>
       <c r="N5">
-        <v>0.6552020000000001</v>
+        <v>0.054267</v>
       </c>
       <c r="O5">
-        <v>0.4297750837475066</v>
+        <v>0.05380551013953323</v>
       </c>
       <c r="P5">
-        <v>0.4297750837475066</v>
+        <v>0.05380551013953323</v>
       </c>
       <c r="Q5">
-        <v>0.03851255515933334</v>
+        <v>0.003189796171</v>
       </c>
       <c r="R5">
-        <v>0.346612996434</v>
+        <v>0.028708165539</v>
       </c>
       <c r="S5">
-        <v>0.1212311350673104</v>
+        <v>0.01306214911112656</v>
       </c>
       <c r="T5">
-        <v>0.1212311350673104</v>
+        <v>0.01306214911112656</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +779,7 @@
         <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -785,46 +788,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.176339</v>
+        <v>0.2935233333333334</v>
       </c>
       <c r="H6">
-        <v>0.529017</v>
+        <v>0.8805700000000001</v>
       </c>
       <c r="I6">
-        <v>0.2820804175295882</v>
+        <v>0.4040937569838875</v>
       </c>
       <c r="J6">
-        <v>0.2820804175295882</v>
+        <v>0.4040937569838876</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.2813096666666667</v>
+        <v>0.024594</v>
       </c>
       <c r="N6">
-        <v>0.843929</v>
+        <v>0.073782</v>
       </c>
       <c r="O6">
-        <v>0.5535692147642246</v>
+        <v>0.07315455339552658</v>
       </c>
       <c r="P6">
-        <v>0.5535692147642245</v>
+        <v>0.07315455339552657</v>
       </c>
       <c r="Q6">
-        <v>0.04960586531033333</v>
+        <v>0.007218912860000001</v>
       </c>
       <c r="R6">
-        <v>0.446452787793</v>
+        <v>0.06497021574</v>
       </c>
       <c r="S6">
-        <v>0.1561510352322187</v>
+        <v>0.02956129832207674</v>
       </c>
       <c r="T6">
-        <v>0.1561510352322187</v>
+        <v>0.02956129832207674</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +841,7 @@
         <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -847,51 +850,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.176339</v>
+        <v>0.2935233333333334</v>
       </c>
       <c r="H7">
-        <v>0.529017</v>
+        <v>0.8805700000000001</v>
       </c>
       <c r="I7">
-        <v>0.2820804175295882</v>
+        <v>0.4040937569838875</v>
       </c>
       <c r="J7">
-        <v>0.2820804175295882</v>
+        <v>0.4040937569838876</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.008463999999999999</v>
+        <v>0.2813096666666666</v>
       </c>
       <c r="N7">
-        <v>0.025392</v>
+        <v>0.8439289999999999</v>
       </c>
       <c r="O7">
-        <v>0.01665570148826878</v>
+        <v>0.8367521765814607</v>
       </c>
       <c r="P7">
-        <v>0.01665570148826878</v>
+        <v>0.8367521765814607</v>
       </c>
       <c r="Q7">
-        <v>0.001492533296</v>
+        <v>0.08257095105888888</v>
       </c>
       <c r="R7">
-        <v>0.013432799664</v>
+        <v>0.74313855953</v>
       </c>
       <c r="S7">
-        <v>0.004698247230059042</v>
+        <v>0.3381263306992477</v>
       </c>
       <c r="T7">
-        <v>0.004698247230059042</v>
+        <v>0.3381263306992477</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>24</v>
@@ -900,7 +903,7 @@
         <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -909,51 +912,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G8">
-        <v>0.2385363333333333</v>
+        <v>0.2935233333333334</v>
       </c>
       <c r="H8">
-        <v>0.7156089999999999</v>
+        <v>0.8805700000000001</v>
       </c>
       <c r="I8">
-        <v>0.3815742887429535</v>
+        <v>0.4040937569838875</v>
       </c>
       <c r="J8">
-        <v>0.3815742887429536</v>
+        <v>0.4040937569838876</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M8">
-        <v>0.2184006666666667</v>
+        <v>0.01219966666666667</v>
       </c>
       <c r="N8">
-        <v>0.6552020000000001</v>
+        <v>0.036599</v>
       </c>
       <c r="O8">
-        <v>0.4297750837475066</v>
+        <v>0.0362877598834794</v>
       </c>
       <c r="P8">
-        <v>0.4297750837475066</v>
+        <v>0.0362877598834794</v>
       </c>
       <c r="Q8">
-        <v>0.05209649422422222</v>
+        <v>0.003580886825555555</v>
       </c>
       <c r="R8">
-        <v>0.468868448018</v>
+        <v>0.03222798143</v>
       </c>
       <c r="S8">
-        <v>0.1639911219003981</v>
+        <v>0.01466365722384439</v>
       </c>
       <c r="T8">
-        <v>0.1639911219003981</v>
+        <v>0.01466365722384439</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>24</v>
@@ -962,7 +965,7 @@
         <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -971,46 +974,46 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G9">
-        <v>0.2385363333333333</v>
+        <v>0.2935233333333334</v>
       </c>
       <c r="H9">
-        <v>0.7156089999999999</v>
+        <v>0.8805700000000001</v>
       </c>
       <c r="I9">
-        <v>0.3815742887429535</v>
+        <v>0.4040937569838875</v>
       </c>
       <c r="J9">
-        <v>0.3815742887429536</v>
+        <v>0.4040937569838876</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.2813096666666667</v>
+        <v>0.018089</v>
       </c>
       <c r="N9">
-        <v>0.843929</v>
+        <v>0.054267</v>
       </c>
       <c r="O9">
-        <v>0.5535692147642246</v>
+        <v>0.05380551013953323</v>
       </c>
       <c r="P9">
-        <v>0.5535692147642245</v>
+        <v>0.05380551013953323</v>
       </c>
       <c r="Q9">
-        <v>0.06710257641788889</v>
+        <v>0.005309543576666667</v>
       </c>
       <c r="R9">
-        <v>0.603923187761</v>
+        <v>0.04778589219000001</v>
       </c>
       <c r="S9">
-        <v>0.2112277793936543</v>
+        <v>0.02174247073871863</v>
       </c>
       <c r="T9">
-        <v>0.2112277793936543</v>
+        <v>0.02174247073871864</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,7 +1027,7 @@
         <v>25</v>
       </c>
       <c r="D10" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E10">
         <v>2</v>
@@ -1033,16 +1036,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.2385363333333333</v>
+        <v>0.1622493333333333</v>
       </c>
       <c r="H10">
-        <v>0.7156089999999999</v>
+        <v>0.486748</v>
       </c>
       <c r="I10">
-        <v>0.3815742887429535</v>
+        <v>0.2233687588997959</v>
       </c>
       <c r="J10">
-        <v>0.3815742887429536</v>
+        <v>0.2233687588997959</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -1051,33 +1054,33 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>0.008463999999999999</v>
+        <v>0.024594</v>
       </c>
       <c r="N10">
-        <v>0.025392</v>
+        <v>0.073782</v>
       </c>
       <c r="O10">
-        <v>0.01665570148826878</v>
+        <v>0.07315455339552658</v>
       </c>
       <c r="P10">
-        <v>0.01665570148826878</v>
+        <v>0.07315455339552657</v>
       </c>
       <c r="Q10">
-        <v>0.002018971525333333</v>
+        <v>0.003990360104</v>
       </c>
       <c r="R10">
-        <v>0.018170743728</v>
+        <v>0.035913240936</v>
       </c>
       <c r="S10">
-        <v>0.006355387448901114</v>
+        <v>0.01634044179982762</v>
       </c>
       <c r="T10">
-        <v>0.006355387448901115</v>
+        <v>0.01634044179982762</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>24</v>
@@ -1095,51 +1098,51 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1487436666666667</v>
+        <v>0.1622493333333333</v>
       </c>
       <c r="H11">
-        <v>0.446231</v>
+        <v>0.486748</v>
       </c>
       <c r="I11">
-        <v>0.2379375838482425</v>
+        <v>0.2233687588997959</v>
       </c>
       <c r="J11">
-        <v>0.2379375838482425</v>
+        <v>0.2233687588997959</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.2184006666666667</v>
+        <v>0.2813096666666666</v>
       </c>
       <c r="N11">
-        <v>0.6552020000000001</v>
+        <v>0.8439289999999999</v>
       </c>
       <c r="O11">
-        <v>0.4297750837475066</v>
+        <v>0.8367521765814607</v>
       </c>
       <c r="P11">
-        <v>0.4297750837475066</v>
+        <v>0.8367521765814607</v>
       </c>
       <c r="Q11">
-        <v>0.03248571596244446</v>
+        <v>0.04564230587688888</v>
       </c>
       <c r="R11">
-        <v>0.2923714436620001</v>
+        <v>0.4107807528919999</v>
       </c>
       <c r="S11">
-        <v>0.1022596450250578</v>
+        <v>0.1869042951897037</v>
       </c>
       <c r="T11">
-        <v>0.1022596450250578</v>
+        <v>0.1869042951897038</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>24</v>
@@ -1148,7 +1151,7 @@
         <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,16 +1160,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1487436666666667</v>
+        <v>0.1622493333333333</v>
       </c>
       <c r="H12">
-        <v>0.446231</v>
+        <v>0.486748</v>
       </c>
       <c r="I12">
-        <v>0.2379375838482425</v>
+        <v>0.2233687588997959</v>
       </c>
       <c r="J12">
-        <v>0.2379375838482425</v>
+        <v>0.2233687588997959</v>
       </c>
       <c r="K12">
         <v>2</v>
@@ -1175,33 +1178,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M12">
-        <v>0.2813096666666667</v>
+        <v>0.01219966666666667</v>
       </c>
       <c r="N12">
-        <v>0.843929</v>
+        <v>0.036599</v>
       </c>
       <c r="O12">
-        <v>0.5535692147642246</v>
+        <v>0.0362877598834794</v>
       </c>
       <c r="P12">
-        <v>0.5535692147642245</v>
+        <v>0.0362877598834794</v>
       </c>
       <c r="Q12">
-        <v>0.04184303128877779</v>
+        <v>0.001979387783555555</v>
       </c>
       <c r="R12">
-        <v>0.3765872815990001</v>
+        <v>0.017814490052</v>
       </c>
       <c r="S12">
-        <v>0.1317149214537684</v>
+        <v>0.008105551888426593</v>
       </c>
       <c r="T12">
-        <v>0.1317149214537684</v>
+        <v>0.008105551888426595</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>24</v>
@@ -1219,16 +1222,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1487436666666667</v>
+        <v>0.1622493333333333</v>
       </c>
       <c r="H13">
-        <v>0.446231</v>
+        <v>0.486748</v>
       </c>
       <c r="I13">
-        <v>0.2379375838482425</v>
+        <v>0.2233687588997959</v>
       </c>
       <c r="J13">
-        <v>0.2379375838482425</v>
+        <v>0.2233687588997959</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1237,28 +1240,276 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.008463999999999999</v>
+        <v>0.018089</v>
       </c>
       <c r="N13">
-        <v>0.025392</v>
+        <v>0.054267</v>
       </c>
       <c r="O13">
-        <v>0.01665570148826878</v>
+        <v>0.05380551013953323</v>
       </c>
       <c r="P13">
-        <v>0.01665570148826878</v>
+        <v>0.05380551013953323</v>
       </c>
       <c r="Q13">
-        <v>0.001258966394666667</v>
+        <v>0.002934928190666667</v>
       </c>
       <c r="R13">
-        <v>0.011330697552</v>
+        <v>0.026414353716</v>
       </c>
       <c r="S13">
-        <v>0.00396301736941625</v>
+        <v>0.01201847002183792</v>
       </c>
       <c r="T13">
-        <v>0.00396301736941625</v>
+        <v>0.01201847002183792</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.09426266666666666</v>
+      </c>
+      <c r="H14">
+        <v>0.282788</v>
+      </c>
+      <c r="I14">
+        <v>0.1297714722849513</v>
+      </c>
+      <c r="J14">
+        <v>0.1297714722849513</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.024594</v>
+      </c>
+      <c r="N14">
+        <v>0.073782</v>
+      </c>
+      <c r="O14">
+        <v>0.07315455339552658</v>
+      </c>
+      <c r="P14">
+        <v>0.07315455339552657</v>
+      </c>
+      <c r="Q14">
+        <v>0.002318296024</v>
+      </c>
+      <c r="R14">
+        <v>0.020864664216</v>
+      </c>
+      <c r="S14">
+        <v>0.009493374098485569</v>
+      </c>
+      <c r="T14">
+        <v>0.009493374098485568</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.09426266666666666</v>
+      </c>
+      <c r="H15">
+        <v>0.282788</v>
+      </c>
+      <c r="I15">
+        <v>0.1297714722849513</v>
+      </c>
+      <c r="J15">
+        <v>0.1297714722849513</v>
+      </c>
+      <c r="K15">
+        <v>2</v>
+      </c>
+      <c r="L15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M15">
+        <v>0.2813096666666666</v>
+      </c>
+      <c r="N15">
+        <v>0.8439289999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.8367521765814607</v>
+      </c>
+      <c r="P15">
+        <v>0.8367521765814607</v>
+      </c>
+      <c r="Q15">
+        <v>0.02651699933911111</v>
+      </c>
+      <c r="R15">
+        <v>0.238652994052</v>
+      </c>
+      <c r="S15">
+        <v>0.1085865618926137</v>
+      </c>
+      <c r="T15">
+        <v>0.1085865618926137</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.09426266666666666</v>
+      </c>
+      <c r="H16">
+        <v>0.282788</v>
+      </c>
+      <c r="I16">
+        <v>0.1297714722849513</v>
+      </c>
+      <c r="J16">
+        <v>0.1297714722849513</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.01219966666666667</v>
+      </c>
+      <c r="N16">
+        <v>0.036599</v>
+      </c>
+      <c r="O16">
+        <v>0.0362877598834794</v>
+      </c>
+      <c r="P16">
+        <v>0.0362877598834794</v>
+      </c>
+      <c r="Q16">
+        <v>0.001149973112444444</v>
+      </c>
+      <c r="R16">
+        <v>0.010349758012</v>
+      </c>
+      <c r="S16">
+        <v>0.004709116026001914</v>
+      </c>
+      <c r="T16">
+        <v>0.004709116026001914</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G17">
+        <v>0.09426266666666666</v>
+      </c>
+      <c r="H17">
+        <v>0.282788</v>
+      </c>
+      <c r="I17">
+        <v>0.1297714722849513</v>
+      </c>
+      <c r="J17">
+        <v>0.1297714722849513</v>
+      </c>
+      <c r="K17">
+        <v>1</v>
+      </c>
+      <c r="L17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M17">
+        <v>0.018089</v>
+      </c>
+      <c r="N17">
+        <v>0.054267</v>
+      </c>
+      <c r="O17">
+        <v>0.05380551013953323</v>
+      </c>
+      <c r="P17">
+        <v>0.05380551013953323</v>
+      </c>
+      <c r="Q17">
+        <v>0.001705117377333333</v>
+      </c>
+      <c r="R17">
+        <v>0.015346056396</v>
+      </c>
+      <c r="S17">
+        <v>0.006982420267850103</v>
+      </c>
+      <c r="T17">
+        <v>0.006982420267850103</v>
       </c>
     </row>
   </sheetData>
